--- a/CoreRulebook/Data/Archetypes/Ravenclaw.xlsx
+++ b/CoreRulebook/Data/Archetypes/Ravenclaw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Weapons:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wands</t>
   </si>
   <si>
     <t xml:space="preserve">Proficiencies:</t>
@@ -227,8 +230,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,7 +239,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="24.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
@@ -357,34 +360,34 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5"/>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="5"/>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="5"/>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
